--- a/sinkhole_data/구별/해운대구.xlsx
+++ b/sinkhole_data/구별/해운대구.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogs0\OneDrive\바탕 화면\2025 전국대학생 CM•시공 경진대회\싱크홀 데이터\구별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A085CB1D-7BB9-4457-9BBB-36E450A5DAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6862E6E3-DC4B-4A10-8000-FF6DBFCF4CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="1510" windowWidth="11630" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>location</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>reason</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
@@ -44,7 +44,7 @@
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>부산광역시 해운대구 좌동순환로 419 앞</t>
@@ -78,36 +78,27 @@
   </si>
   <si>
     <t>lon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -189,20 +180,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
       </right>
@@ -218,25 +196,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,72 +523,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="65.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>43126</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="6">
@@ -616,87 +596,87 @@
       <c r="I2" s="6">
         <v>35.161582130821799</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>43166</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1.2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>43221</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>129.14970627491999</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <v>35.166918620689103</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="3">
+    <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
         <v>43636</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6">
@@ -706,8 +686,9 @@
         <v>35.160110228428302</v>
       </c>
     </row>
+    <row r="7" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>